--- a/Data/Processed/Angiosperms/missing_powo_ipni/Ulmaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Ulmaceae.xlsx
@@ -597,7 +597,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 2: 339. 1843 </t>
+          <t>London J. Bot. 2: 339. 1843</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -753,7 +753,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 3, 18: 193. 1852 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 3, 18: 193. 1852</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -831,7 +831,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 3, 18: 194. 1852 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 3, 18: 194. 1852</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -909,7 +909,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 3, 18: 194. 1852 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 3, 18: 194. 1852</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -987,7 +987,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 3, 18: 196. 1852 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 3, 18: 196. 1852</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 3, 18: 196. 1852 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 3, 18: 196. 1852</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 3, 18: 195. 1852 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 3, 18: 195. 1852</t>
         </is>
       </c>
       <c r="J11" t="b">
